--- a/data/takiphedeffiyat_sanayi.xlsx
+++ b/data/takiphedeffiyat_sanayi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3FFBCF-3C4B-481F-A554-C5075BFAC150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196BB38-B75F-47A8-8B34-C9483510A1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="3045" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>AEFES</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>AKCNS</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>ALKIM</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>BIZIM</t>
   </si>
   <si>
-    <t>SAT</t>
-  </si>
-  <si>
     <t>CCOLA</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>SOKM</t>
   </si>
   <si>
-    <t>G.G.</t>
-  </si>
-  <si>
     <t>22.07.2020</t>
   </si>
   <si>
@@ -182,6 +170,18 @@
   </si>
   <si>
     <t>TargetPriceChange</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>U.R.</t>
   </si>
 </sst>
 </file>
@@ -541,53 +541,53 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>31</v>
@@ -604,19 +604,19 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1">
         <v>31</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1">
         <v>25.1</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>15.36</v>
@@ -648,19 +648,19 @@
         <v>-18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1">
         <v>15.36</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1">
         <v>12.61</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>12.17</v>
@@ -692,19 +692,19 @@
         <v>-23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1">
         <v>12.17</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M4" s="1">
         <v>13.2</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>39.6</v>
@@ -736,19 +736,19 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1">
         <v>39.6</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1">
         <v>27.2</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>16.98</v>
@@ -780,19 +780,19 @@
         <v>-10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1">
         <v>16.98</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1">
         <v>14.98</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>87</v>
@@ -824,19 +824,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1">
         <v>89</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1">
         <v>85.5</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>15.5</v>
@@ -868,19 +868,19 @@
         <v>-3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1">
         <v>15.5</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M8" s="1">
         <v>15.86</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>75</v>
@@ -912,19 +912,19 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1">
         <v>75</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M9" s="1">
         <v>52.67</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>27</v>
@@ -956,19 +956,19 @@
         <v>-4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1">
         <v>27</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M10" s="1">
         <v>16.350000000000001</v>
@@ -988,10 +988,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>8.1999999999999993</v>
@@ -1000,19 +1000,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1">
         <v>8.1999999999999993</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M11" s="1">
         <v>7.33</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>14.32</v>
@@ -1044,19 +1044,19 @@
         <v>-5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1">
         <v>14.32</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M12" s="1">
         <v>12.01</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>130.6</v>
@@ -1088,19 +1088,19 @@
         <v>-3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1">
         <v>130.6</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M13" s="1">
         <v>96.15</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>10.14</v>
@@ -1132,19 +1132,19 @@
         <v>-25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1">
         <v>10.14</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M14" s="1">
         <v>10.27</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>13.65</v>
@@ -1176,19 +1176,19 @@
         <v>-17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1">
         <v>13.65</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M15" s="1">
         <v>13.84</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>90.57</v>
@@ -1220,19 +1220,19 @@
         <v>-24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1">
         <v>90.57</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M16" s="1">
         <v>101.49</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>6.04</v>
@@ -1264,19 +1264,19 @@
         <v>-2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1">
         <v>6.04</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M17" s="1">
         <v>3.69</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>128.97999999999999</v>
@@ -1308,19 +1308,19 @@
         <v>-3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1">
         <v>128.97999999999999</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M18" s="1">
         <v>112.3</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>60</v>
@@ -1352,19 +1352,19 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1">
         <v>60</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M19" s="1">
         <v>51</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <v>53</v>
@@ -1396,19 +1396,19 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1">
         <v>53</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1">
         <v>50</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>23.33</v>
@@ -1440,19 +1440,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1">
         <v>23.33</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M21" s="1">
         <v>21.04</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1">
         <v>265</v>
@@ -1484,19 +1484,19 @@
         <v>-37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1">
         <v>265</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M22" s="1">
         <v>160</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>4.55</v>
@@ -1528,19 +1528,19 @@
         <v>-50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1">
         <v>4.55</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M23" s="1">
         <v>3.41</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1">
         <v>4.2</v>
@@ -1572,19 +1572,19 @@
         <v>-20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1">
         <v>4.2</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M24" s="1">
         <v>4.76</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>78.25</v>
@@ -1616,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1">
         <v>78.25</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M25" s="1">
         <v>50.4</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>12.79</v>
@@ -1660,19 +1660,19 @@
         <v>-5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1">
         <v>12.79</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M26" s="1">
         <v>11</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
         <v>8.7200000000000006</v>
@@ -1704,19 +1704,19 @@
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J27" s="1">
         <v>8.7200000000000006</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1">
         <v>8.2200000000000006</v>
@@ -1736,43 +1736,43 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <v>24.8</v>
@@ -1792,19 +1792,19 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1">
         <v>24.8</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M29" s="1">
         <v>19.3</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <v>21.62</v>
@@ -1836,19 +1836,19 @@
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1">
         <v>21.62</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M30" s="1">
         <v>21.6</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>15.45</v>
@@ -1880,19 +1880,19 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J31" s="1">
         <v>15.45</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M31" s="1">
         <v>13</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
         <v>19.05</v>
@@ -1924,19 +1924,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1">
         <v>19.05</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M32" s="1">
         <v>18.670000000000002</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <v>38.200000000000003</v>
@@ -1968,19 +1968,19 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1">
         <v>38.200000000000003</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M33" s="1">
         <v>34.5</v>
@@ -2000,10 +2000,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <v>10.81</v>
@@ -2012,19 +2012,19 @@
         <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J34" s="1">
         <v>10.81</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M34" s="1">
         <v>10.199999999999999</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
         <v>164</v>
@@ -2056,19 +2056,19 @@
         <v>-11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J35" s="1">
         <v>164</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M35" s="1">
         <v>139.85</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
         <v>115.02</v>
@@ -2100,19 +2100,19 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J36" s="1">
         <v>115.02</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M36" s="1">
         <v>107.89</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <v>27.5</v>
@@ -2144,19 +2144,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J37" s="1">
         <v>27.5</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M37" s="1">
         <v>29.5</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>44.6</v>
@@ -2188,19 +2188,19 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J38" s="1">
         <v>44.6</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M38" s="1">
         <v>33</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
         <v>25.45</v>
@@ -2232,19 +2232,19 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J39" s="1">
         <v>25.45</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M39" s="1">
         <v>20.100000000000001</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <v>14.71</v>
@@ -2276,19 +2276,19 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J40" s="1">
         <v>14.71</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M40" s="1">
         <v>11.5</v>
